--- a/Lab10/zadania_Kruskal_Prima (1).xlsx
+++ b/Lab10/zadania_Kruskal_Prima (1).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\algorytmy_sem_2\Laboratorium_algorytmy_sem_2\lAB11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24DCC3F3-3562-4EED-ACE4-580842DEA588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{982BBA65-82D4-4D63-BD81-13B1E8AB87C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Zadanie_1" sheetId="1" r:id="rId1"/>
@@ -22,11 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Zadanie_1!$U$2:$W$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Zadanie_2!$S$1:$U$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">zadanie_4_a!$L$3:$N$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">zadanie_4_b!$O$3:$Q$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="21">
   <si>
     <t>Macierz sąsiedztwa</t>
   </si>
@@ -92,12 +87,18 @@
   <si>
     <t>H</t>
   </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +182,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +218,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -502,14 +515,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,12 +712,28 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Dane wejściowe" xfId="3" builtinId="20"/>
     <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
-    <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
+    <cellStyle name="Neutralne" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Złe" xfId="4" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,7 +768,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC9A9D6-4CDF-4699-8BD3-530F305A4D74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CC9A9D6-4CDF-4699-8BD3-530F305A4D74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -730,7 +812,7 @@
         <xdr:cNvPr id="4" name="Obraz 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99AC901C-1CA5-4DEC-83F6-BBF2CB9CA361}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99AC901C-1CA5-4DEC-83F6-BBF2CB9CA361}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -779,7 +861,7 @@
         <xdr:cNvPr id="3" name="Obraz 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9325AFDA-9649-4F7D-BD4F-548EAC659979}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9325AFDA-9649-4F7D-BD4F-548EAC659979}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -823,7 +905,7 @@
         <xdr:cNvPr id="4" name="Obraz 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E555B903-5544-4C9E-85E3-5A961FB0D86E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E555B903-5544-4C9E-85E3-5A961FB0D86E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +954,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F38C10-455D-4DCA-8DC8-FA82733D762B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29F38C10-455D-4DCA-8DC8-FA82733D762B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,22 +983,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>445033</xdr:colOff>
+      <xdr:colOff>406933</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>186057</xdr:rowOff>
+      <xdr:rowOff>128907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Obraz 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F298119E-4F9F-4BAD-ABC6-F98C48859916}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F298119E-4F9F-4BAD-ABC6-F98C48859916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +1014,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="57150"/>
-          <a:ext cx="6539568" cy="2803234"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6524914" cy="2803234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,56 +1037,33 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>109973</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="23" name="Pismo odręczne 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EB3770-EF91-48E2-805C-3FBFFB304668}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="468360" y="3230640"/>
-            <a:ext cx="4449240" cy="1649160"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="23" name="Pismo odręczne 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EB3770-EF91-48E2-805C-3FBFFB304668}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="459719" y="3222000"/>
-              <a:ext cx="4466881" cy="1666800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Pismo odręczne 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{09EB3770-EF91-48E2-805C-3FBFFB304668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="459719" y="3222000"/>
+          <a:ext cx="4466881" cy="1666800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1020,56 +1079,33 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>153833</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="24" name="Pismo odręczne 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2259AE2-96AA-414E-BA2C-55463917FA75}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8564760" y="541800"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="24" name="Pismo odręczne 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2259AE2-96AA-414E-BA2C-55463917FA75}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8556120" y="532800"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Pismo odręczne 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{A2259AE2-96AA-414E-BA2C-55463917FA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8556120" y="532800"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1085,56 +1121,33 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>65993</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="25" name="Pismo odręczne 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A12301B-9073-47A7-B8B2-11D6D2508802}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8623440" y="453960"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="25" name="Pismo odręczne 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A12301B-9073-47A7-B8B2-11D6D2508802}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8614440" y="445320"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Pismo odręczne 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{6A12301B-9073-47A7-B8B2-11D6D2508802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8614440" y="445320"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1145,22 +1158,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>298525</xdr:colOff>
+      <xdr:colOff>431875</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23771D6F-273D-46B6-9900-2721BC8CFFD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23771D6F-273D-46B6-9900-2721BC8CFFD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,7 +1189,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="133350" y="0"/>
           <a:ext cx="5175325" cy="2628900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1188,132 +1201,86 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>94837</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>153473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95197</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>153833</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="3" name="Pismo odręczne 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4309A4AE-B02A-47D2-A4ED-0435E966E1BA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8564760" y="541800"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="Pismo odręczne 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4309A4AE-B02A-47D2-A4ED-0435E966E1BA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8556120" y="532800"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Pismo odręczne 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{4309A4AE-B02A-47D2-A4ED-0435E966E1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8556120" y="532800"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>153517</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>65633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>153877</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>65993</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="4" name="Pismo odręczne 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3629F0E3-23DE-4C14-BDDA-369722C70094}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8623440" y="453960"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="Pismo odręczne 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3629F0E3-23DE-4C14-BDDA-369722C70094}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8614440" y="445320"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pismo odręczne 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{3629F0E3-23DE-4C14-BDDA-369722C70094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8614440" y="445320"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1334,7 +1301,7 @@
         <xdr:cNvPr id="5" name="Obraz 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765563E7-F6BC-40F9-8087-05347967AEF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{765563E7-F6BC-40F9-8087-05347967AEF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1310,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1363,261 +1330,211 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>561570</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>94395</xdr:rowOff>
+      <xdr:rowOff>84870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342480</xdr:colOff>
+      <xdr:colOff>361530</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>182235</xdr:rowOff>
+      <xdr:rowOff>172710</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="6" name="Pismo odręczne 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F119087D-55B7-402D-99D8-801DB10BF519}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="542520" y="484920"/>
-            <a:ext cx="1019160" cy="87840"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="Pismo odręczne 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F119087D-55B7-402D-99D8-801DB10BF519}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="533880" y="476280"/>
-              <a:ext cx="1036800" cy="105480"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Pismo odręczne 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{F119087D-55B7-402D-99D8-801DB10BF519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561570" y="475395"/>
+          <a:ext cx="1019160" cy="87840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>199560</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>28290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>199920</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>28650</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="9" name="Pismo odręczne 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DEE218-D8B0-41C1-8F4E-FD4774923D47}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6905160" y="618840"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="Pismo odręczne 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DEE218-D8B0-41C1-8F4E-FD4774923D47}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6896520" y="609840"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Pismo odręczne 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{96DEE218-D8B0-41C1-8F4E-FD4774923D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896520" y="609840"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>247320</xdr:colOff>
+      <xdr:colOff>294945</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104475</xdr:rowOff>
+      <xdr:rowOff>123525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9840</xdr:colOff>
+      <xdr:colOff>57465</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>152430</xdr:rowOff>
+      <xdr:rowOff>171480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="15" name="Pismo odręczne 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09D2169-4EB2-4073-A48C-19D9EADB2995}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="2076120" y="495000"/>
-            <a:ext cx="2810520" cy="1581480"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="15" name="Pismo odręczne 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09D2169-4EB2-4073-A48C-19D9EADB2995}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2067480" y="486000"/>
-              <a:ext cx="2828160" cy="1599120"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Pismo odręczne 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{C09D2169-4EB2-4073-A48C-19D9EADB2995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2123745" y="514050"/>
+          <a:ext cx="2810520" cy="1571955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>444600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104190</xdr:rowOff>
+      <xdr:colOff>493440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>188700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352560</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>143070</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>532320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>172860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="16" name="Pismo odręczne 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F977A077-53AD-4FC2-970C-8708BCBE6F8A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="444600" y="2028240"/>
-            <a:ext cx="1127160" cy="38880"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="16" name="Pismo odręczne 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F977A077-53AD-4FC2-970C-8708BCBE6F8A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="435960" y="2019240"/>
-              <a:ext cx="1144800" cy="56520"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Pismo odręczne 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{F977A077-53AD-4FC2-970C-8708BCBE6F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-50700" y="1313865"/>
+          <a:ext cx="1127160" cy="38880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>199560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>199920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Pismo odręczne 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{96DEE218-D8B0-41C1-8F4E-FD4774923D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905160" y="1942815"/>
+          <a:ext cx="360" cy="360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1643,7 +1560,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2DB2DD-7ACC-4F05-A3A5-D8C7BB540162}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2DB2DD-7ACC-4F05-A3A5-D8C7BB540162}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,56 +1599,33 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="4" name="Pismo odręczne 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C430DD2-10CA-4D19-BEDC-3E2079FF8C84}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="11810520" y="618840"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="Pismo odręczne 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C430DD2-10CA-4D19-BEDC-3E2079FF8C84}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11801880" y="609840"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pismo odręczne 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{1C430DD2-10CA-4D19-BEDC-3E2079FF8C84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11801880" y="609840"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1747,56 +1641,33 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="5" name="Pismo odręczne 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3796B6C5-7131-4263-9CE7-0ECB023CCF89}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="11848680" y="647280"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Pismo odręczne 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3796B6C5-7131-4263-9CE7-0ECB023CCF89}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11840040" y="638280"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Pismo odręczne 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{3796B6C5-7131-4263-9CE7-0ECB023CCF89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11840040" y="638280"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1812,56 +1683,33 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="12" name="Pismo odręczne 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDE1FFB-7C05-48D8-BBAD-08E9D3617596}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="9448560" y="3752640"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="12" name="Pismo odręczne 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDE1FFB-7C05-48D8-BBAD-08E9D3617596}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9439920" y="3743640"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Pismo odręczne 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{CBDE1FFB-7C05-48D8-BBAD-08E9D3617596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439920" y="3743640"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1877,427 +1725,36 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>48300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="16" name="Pismo odręczne 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924F825D-9410-422A-BD49-B1BDB534C2CD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="437040" y="561600"/>
-            <a:ext cx="4154400" cy="1582200"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="16" name="Pismo odręczne 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924F825D-9410-422A-BD49-B1BDB534C2CD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="428399" y="552600"/>
-              <a:ext cx="4172042" cy="1599840"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Pismo odręczne 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{924F825D-9410-422A-BD49-B1BDB534C2CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428399" y="552600"/>
+          <a:ext cx="4172042" cy="1599840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:47:27.441"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2016,'13'-3,"-1"0,1-1,-1 0,0-1,0 0,0-1,-1 0,0-1,0 0,0-1,0-2,29-16,170-90,-123 71,-2-3,-2-4,-2-4,1-6,313-339,-290 287,132-100,-45-72,-150 210,-30 63</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3813.907">2098 266,'163'-32,"271"-28,-184 37,1 11,142 14,-119 1,364-3,-327-42,51 1,-317 42,0-3,0-1,0-2,0-3,23-7,148-5,-96 12,-103 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16334.149">5965 1,'-65'62,"-347"502,339-485,-3-4,-3-3,-3-3,-3-5,-2-3,-96 50,-78 58,224-141,0 1,2 2,1 2,2 1,-7 11,-15 15,-261 286,298-321,6-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23012.464">6473 307,'0'11,"-1"12,0 0,2 1,1-1,0 0,2-1,1 1,0-1,2 1,0-2,4 6,33 44,3-1,3-2,4-3,2-2,2-3,3-2,32 20,351 299,-197-175,-9 11,118 142,129 212,-73-155,-125 20,40-48,78-58,-379-307</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26128.997">10503 4336,'-90'16,"-902"-11,-453-5,828 41,577-38,1 1,0 1,0 3,0 1,1 2,-24 10,59-20,-196 53,-41-49,216-8,3-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27375.769">6209 4581,'-3205'0,"2897"-22,-24-39,113 33,205 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50454.682">6473 1,'262'16,"12"22,204-31,191-6,-365 20,-24 17,546-37,-347-2,-383-14,-73 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56201.899">10788 245,'-1'5,"0"0,0 0,1 0,-1-1,1 1,0 0,1 0,-1 0,1 0,0 0,0-1,1 1,-1 0,1-1,0 1,0-1,1 0,-1 1,1-1,0 0,0-1,1 1,1 2,2 4,48 75,3-3,4-3,3-2,3-3,4-3,27 17,271 206,191 106,-454-274,-93-104</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:30:47.791"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:30:48.294"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:32:14.757"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:31:06.847"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11539 715,'-2'0,"0"-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,-1 2,-2 0,-234 373,29-63,-91 197,-7 3,264-449,-4-2,-2-3,-3-1,-30 25,58-60,-31 24,-2-2,-1-3,-3-2,-1-3,-2-2,-39 14,-40 25,-380 216,500-278,1 2,0 0,2 1,0 1,0 0,2 2,0 0,1 1,1 0,-6 14,-92 188,113-222,1 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,33-37,272-396,142-60,-296 336,566-515,-521 472,123-166,-266 302,-10 13,-2-2,-2-2,-2-1,-3-1,-3-3,-2 0,0-7,-29 66,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,-31 36,-489 646,340-462,-11-8,-45 28,-613 517,769-675,4 3,3 3,-25 44,84-113</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41188.615">4633 4366,'2017'0,"-1536"-29,-23-21,-1130 50,-285 1,438 25,-39-26,513 4,8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52372.3">8814 4181,'1427'27,"-736"-33,-659 2,-1-1,0-2,0-2,0 0,-1-2,-1-1,0-2,3-3,-32 17,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,0-1,-44 3,-1579 193,493-155,1130-39,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,120 18,986-8,-195-12,-877-1,0-1,1-1,-2-2,1-2,-1 0,25-12,67-23,-106 34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-21485.615">717 265,'456'-15,"-121"-31,-108 11,1 11,53 7,-130 14,-1-8,147-28,-59-5,-124 39,-214 23,-561 73,42 5,422-59,12 1,-241 32,362-70,64 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1-1,-1 1,0-1,55-23,78-16,2 7,1 5,1 6,100-2,129-8,198 12,-460 38,-133 18,4-25,0-1,-1-1,0-2,0 0,-1-2,0-1,0-1,-3-1,-23 3,-165 19,0-9,-5-10,137 4,44 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62636.642">4818 0,'383'50,"-228"-21,336 57,3-21,2-21,170-20,-620-24,0-2,-1-2,1-2,-1-2,0-2,-1-2,38-16,-48-4,-86 9,-397-23,-210 15,638 30,-2006-14,1657 62,339-38,12-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="77535.993">7967 529,'26'1861,"-35"-1693,-7 0,-26 101,32-187,4-1,3 1,7 64,-1 2,-3-32,0-96,0-80,0-2589,51 2357,-48 203,-3 65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="130992.875">109 847,'-1'1529,"-76"-418,76-742,1-370,1 1,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 1,5-49,6-821,-12 731,-28-913,0 281,55 606,-18 143</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:49:30.396"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:49:30.896"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:52:51.461"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:52:51.463"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:54:24.559"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 213,'7'5,"1"-1,0 0,1-1,-1 0,1 0,-1-1,1 0,0 0,0-1,0 0,0-1,0 1,0-2,7-1,4 2,102 1,0-5,-1-6,26-9,238-32,-75 3,259-9,-31 5,-200 53,-316-1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:54:52.750"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:54:27.312"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 106,'63'24,"542"-22,313-2,-593-52,-65-27,154 78,-386 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3010.174">3414 609,'0'2336,"-28"-2047,2-76,-18-1,38-183</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="88197.622">3705 3863,'88'-62,"-75"48,45-54,-3-3,-3-2,-3-3,4-14,-2 5,989-1439,-844 1251,-35 44,157-168,-279 357,2 1,2 3,2 1,1 2,1 2,2 3,0 1,2 3,1 2,11-1,341-125,-368 138</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89072.598">3890 4392,'1169'-36,"690"-194,-1232 168,-408 45,-177 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89885.093">3176 4286,'-2942'0,"2877"5,43 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-06-06T12:55:58.119"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3131 107,'-856'-65,"-991"23,1448 43,371-1</inkml:trace>
-</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2343,7 +1800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2395,7 +1852,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2589,21 +2046,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A9190-DFB5-4605-A9EA-B06D25333670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="16" width="3.28515625" customWidth="1"/>
@@ -2615,7 +2072,7 @@
     <col min="29" max="37" width="3.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="Q1" s="42" t="s">
         <v>10</v>
       </c>
@@ -2633,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="P2" s="8"/>
       <c r="Q2" s="40" t="s">
         <v>1</v>
@@ -2664,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36">
       <c r="Q3" s="2">
         <v>0</v>
       </c>
@@ -2688,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="Q4" s="2">
         <v>0</v>
       </c>
@@ -2712,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="Q5" s="2">
         <v>1</v>
       </c>
@@ -2733,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="Q6" s="2">
         <v>1</v>
       </c>
@@ -2754,7 +2211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="Q7" s="2">
         <v>2</v>
       </c>
@@ -2775,7 +2232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36">
       <c r="Q8" s="2">
         <v>2</v>
       </c>
@@ -2801,7 +2258,7 @@
       <c r="AI8" s="11"/>
       <c r="AJ8" s="11"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36">
       <c r="A9" s="41" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +2295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36">
       <c r="B10" s="4">
         <v>0</v>
       </c>
@@ -2892,7 +2349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -2927,7 +2384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -2964,7 +2421,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -3000,7 +2457,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -3037,7 +2494,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -3074,7 +2531,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -3109,7 +2566,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="5">
         <v>6</v>
       </c>
@@ -3138,7 +2595,7 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="5">
         <v>7</v>
       </c>
@@ -3165,7 +2622,7 @@
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="5">
         <v>8</v>
       </c>
@@ -3194,7 +2651,7 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="5">
         <v>9</v>
       </c>
@@ -3215,7 +2672,7 @@
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -3224,7 +2681,7 @@
       <c r="V21" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="U2:W16" xr:uid="{608E40DE-F332-47D5-A67A-6A5D4C3228CB}">
+  <autoFilter ref="U2:W16">
     <sortState ref="U3:W16">
       <sortCondition ref="W2:W16"/>
     </sortState>
@@ -3240,14 +2697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216FAF77-72CC-4618-9C8D-DC91F02562A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="14" width="3.28515625" customWidth="1"/>
@@ -3261,7 +2718,7 @@
     <col min="30" max="38" width="3.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="O1" s="9" t="s">
         <v>1</v>
       </c>
@@ -3293,7 +2750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="N2" s="8"/>
       <c r="O2" s="2">
         <v>0</v>
@@ -3317,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="O3" s="2">
         <v>0</v>
       </c>
@@ -3337,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="O4" s="2">
         <v>0</v>
       </c>
@@ -3357,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="O5" s="2">
         <v>1</v>
       </c>
@@ -3377,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37">
       <c r="O6" s="2">
         <v>1</v>
       </c>
@@ -3397,7 +2854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="O7" s="2">
         <v>1</v>
       </c>
@@ -3417,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="O8" s="2">
         <v>2</v>
       </c>
@@ -3442,7 +2899,7 @@
       <c r="AJ8" s="11"/>
       <c r="AK8" s="11"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="41" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +2929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="B10" s="14">
         <v>0</v>
       </c>
@@ -3513,7 +2970,7 @@
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -3547,7 +3004,7 @@
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -3583,7 +3040,7 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -3617,7 +3074,7 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -3651,7 +3108,7 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -3674,7 +3131,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -3698,7 +3155,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="5">
         <v>6</v>
       </c>
@@ -3724,7 +3181,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="5">
         <v>7</v>
       </c>
@@ -3744,23 +3201,23 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="S1:U14" xr:uid="{47AE79AF-8E14-409E-B261-B91676963DB1}">
+  <autoFilter ref="S1:U14">
     <sortState ref="S2:U14">
       <sortCondition ref="U1:U14"/>
     </sortState>
@@ -3774,14 +3231,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72188CA9-0140-4135-B72E-100363EB59ED}">
-  <dimension ref="K1:AK28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="K1:AK30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="16" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="16"/>
@@ -3797,7 +3254,7 @@
     <col min="44" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="11:37">
       <c r="N1" s="43" t="s">
         <v>10</v>
       </c>
@@ -3848,7 +3305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="11:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="11:37" ht="15.75" thickBot="1">
       <c r="K2" s="17"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
@@ -3913,7 +3370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="11:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="11:37">
       <c r="N3" s="27">
         <v>0</v>
       </c>
@@ -3942,7 +3399,7 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="20"/>
     </row>
-    <row r="4" spans="11:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="11:37">
       <c r="N4" s="27">
         <v>0</v>
       </c>
@@ -3969,8 +3426,35 @@
       <c r="Y4" s="22"/>
       <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
-    </row>
-    <row r="5" spans="11:37" x14ac:dyDescent="0.25">
+      <c r="AC4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>7</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="11:37">
       <c r="N5" s="27">
         <v>1</v>
       </c>
@@ -3998,9 +3482,41 @@
       <c r="Z5" s="19">
         <v>2</v>
       </c>
-      <c r="AA5" s="19"/>
-    </row>
-    <row r="6" spans="11:37" x14ac:dyDescent="0.25">
+      <c r="AA5" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="11:37">
       <c r="N6" s="27">
         <v>1</v>
       </c>
@@ -4028,7 +3544,7 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
     </row>
-    <row r="7" spans="11:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="11:37">
       <c r="N7" s="27">
         <v>2</v>
       </c>
@@ -4055,8 +3571,35 @@
       <c r="Y7" s="22"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
-    </row>
-    <row r="8" spans="11:37" x14ac:dyDescent="0.25">
+      <c r="AC7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="18">
+        <v>7</v>
+      </c>
+      <c r="AK7" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="11:37">
       <c r="N8" s="27">
         <v>2</v>
       </c>
@@ -4084,9 +3627,41 @@
       <c r="Z8" s="19">
         <v>3</v>
       </c>
-      <c r="AA8" s="19"/>
-    </row>
-    <row r="9" spans="11:37" x14ac:dyDescent="0.25">
+      <c r="AA8" s="19">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK8" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="11:37">
       <c r="N9" s="27">
         <v>2</v>
       </c>
@@ -4114,7 +3689,7 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
     </row>
-    <row r="10" spans="11:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="11:37">
       <c r="N10" s="27">
         <v>3</v>
       </c>
@@ -4141,8 +3716,35 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
-    </row>
-    <row r="11" spans="11:37" x14ac:dyDescent="0.25">
+      <c r="AC10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>7</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="11:37">
       <c r="N11" s="27">
         <v>3</v>
       </c>
@@ -4167,9 +3769,41 @@
       <c r="Z11" s="19">
         <v>4</v>
       </c>
-      <c r="AA11" s="19"/>
-    </row>
-    <row r="12" spans="11:37" x14ac:dyDescent="0.25">
+      <c r="AA11" s="19">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK11" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="11:37">
       <c r="N12" s="27">
         <v>4</v>
       </c>
@@ -4191,7 +3825,7 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
     </row>
-    <row r="13" spans="11:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="11:37">
       <c r="N13" s="27">
         <v>4</v>
       </c>
@@ -4212,8 +3846,35 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
-    </row>
-    <row r="14" spans="11:37" x14ac:dyDescent="0.25">
+      <c r="AC13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="18">
+        <v>7</v>
+      </c>
+      <c r="AK13" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="11:37">
       <c r="N14" s="27">
         <v>5</v>
       </c>
@@ -4235,9 +3896,41 @@
       <c r="Z14" s="19">
         <v>5</v>
       </c>
-      <c r="AA14" s="19"/>
-    </row>
-    <row r="15" spans="11:37" x14ac:dyDescent="0.25">
+      <c r="AA14" s="19">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK14" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="11:37">
       <c r="N15" s="27">
         <v>6</v>
       </c>
@@ -4259,7 +3952,7 @@
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
     </row>
-    <row r="16" spans="11:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="11:37">
       <c r="N16" s="27">
         <v>7</v>
       </c>
@@ -4280,8 +3973,35 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
-    </row>
-    <row r="17" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="AC16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="18">
+        <v>7</v>
+      </c>
+      <c r="AK16" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="14:37">
       <c r="N17" s="27"/>
       <c r="O17" s="19"/>
       <c r="P17" s="28"/>
@@ -4297,9 +4017,41 @@
       <c r="Z17" s="19">
         <v>6</v>
       </c>
-      <c r="AA17" s="19"/>
-    </row>
-    <row r="18" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="AA17" s="19">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK17" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="14:37">
       <c r="N18" s="27"/>
       <c r="O18" s="19"/>
       <c r="P18" s="28"/>
@@ -4315,7 +4067,7 @@
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
     </row>
-    <row r="19" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="14:37">
       <c r="N19" s="27"/>
       <c r="O19" s="19"/>
       <c r="P19" s="28"/>
@@ -4330,8 +4082,35 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
-    </row>
-    <row r="20" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="AC19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ19" s="18">
+        <v>7</v>
+      </c>
+      <c r="AK19" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="14:37">
       <c r="N20" s="27"/>
       <c r="O20" s="19"/>
       <c r="P20" s="28"/>
@@ -4347,9 +4126,41 @@
       <c r="Z20" s="19">
         <v>7</v>
       </c>
-      <c r="AA20" s="19"/>
-    </row>
-    <row r="21" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="AA20" s="19">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK20" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="14:37">
       <c r="N21" s="27"/>
       <c r="O21" s="19"/>
       <c r="P21" s="28"/>
@@ -4365,7 +4176,7 @@
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
     </row>
-    <row r="22" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="14:37">
       <c r="N22" s="27"/>
       <c r="O22" s="19"/>
       <c r="P22" s="28"/>
@@ -4380,8 +4191,35 @@
       <c r="Y22" s="22"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
-    </row>
-    <row r="23" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="AC22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH22" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI22" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ22" s="18">
+        <v>7</v>
+      </c>
+      <c r="AK22" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="14:37">
       <c r="N23" s="27"/>
       <c r="O23" s="19"/>
       <c r="P23" s="28"/>
@@ -4397,9 +4235,41 @@
       <c r="Z23" s="19">
         <v>8</v>
       </c>
-      <c r="AA23" s="19"/>
-    </row>
-    <row r="24" spans="14:27" x14ac:dyDescent="0.25">
+      <c r="AA23" s="19">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK23" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="14:37">
       <c r="N24" s="27"/>
       <c r="O24" s="19"/>
       <c r="P24" s="28"/>
@@ -4415,7 +4285,7 @@
       <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
     </row>
-    <row r="25" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="14:37">
       <c r="N25" s="27"/>
       <c r="O25" s="19"/>
       <c r="P25" s="28"/>
@@ -4431,7 +4301,7 @@
       <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
     </row>
-    <row r="26" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="14:37">
       <c r="N26" s="27"/>
       <c r="O26" s="19"/>
       <c r="P26" s="28"/>
@@ -4447,7 +4317,7 @@
       <c r="Z26" s="19"/>
       <c r="AA26" s="19"/>
     </row>
-    <row r="27" spans="14:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="14:37">
       <c r="N27" s="27"/>
       <c r="O27" s="19"/>
       <c r="P27" s="28"/>
@@ -4463,7 +4333,7 @@
       <c r="Z27" s="19"/>
       <c r="AA27" s="19"/>
     </row>
-    <row r="28" spans="14:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:37" ht="15.75" thickBot="1">
       <c r="N28" s="29"/>
       <c r="O28" s="30"/>
       <c r="P28" s="31"/>
@@ -4479,6 +4349,11 @@
       <c r="Z28" s="19"/>
       <c r="AA28" s="19"/>
     </row>
+    <row r="30" spans="14:37">
+      <c r="Z30" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="N1:P1"/>
@@ -4490,305 +4365,522 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415792F1-9DA3-43D0-A32F-3078113C1CC8}">
-  <dimension ref="L1:S29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="L1:AF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="12:32" ht="15.75" thickBot="1"/>
+    <row r="2" spans="12:32">
       <c r="L2" s="43" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="45"/>
-      <c r="Q2" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47"/>
-    </row>
-    <row r="3" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="26" t="s">
+      <c r="P2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="T2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="16"/>
+      <c r="W2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="12:32">
+      <c r="L3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="34" t="s">
+      <c r="P3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L4" s="27"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="28"/>
-      <c r="Q4" s="35" t="s">
+      <c r="T3" s="19">
+        <v>1</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="19"/>
+    </row>
+    <row r="4" spans="12:32">
+      <c r="L4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="M4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L5" s="27"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="28"/>
-      <c r="Q5" s="27" t="s">
+      <c r="N4" s="48">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="AF4" s="18"/>
+    </row>
+    <row r="5" spans="12:32">
+      <c r="L5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="48">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="12:32">
+      <c r="L6" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="48">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="19">
+        <v>2</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="12:32">
+      <c r="L7" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="48">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="12:32">
+      <c r="L8" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L6" s="27"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="28"/>
-      <c r="Q6" s="27" t="s">
+      <c r="N8" s="48">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R8" s="3">
+        <v>2</v>
+      </c>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="12:32">
+      <c r="L9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L7" s="27"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="28"/>
-      <c r="Q7" s="27" t="s">
+      <c r="N9" s="48">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R9" s="3">
+        <v>2</v>
+      </c>
+      <c r="T9" s="19">
+        <v>3</v>
+      </c>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="12:32">
+      <c r="L10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L8" s="27"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="28"/>
-      <c r="Q8" s="27" t="s">
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="19">
+        <v>4</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="12:32">
+      <c r="L11" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="48">
+        <v>4</v>
+      </c>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="28">
+        <f>SUM(R4:R10)</f>
+        <v>12</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="12:32">
+      <c r="L12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="3">
+        <v>4</v>
+      </c>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="28"/>
+      <c r="T12" s="19">
+        <v>4</v>
+      </c>
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="12:32">
+      <c r="L13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="3">
+        <v>5</v>
+      </c>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="28"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+    </row>
+    <row r="14" spans="12:32">
+      <c r="L14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="19">
+        <v>6</v>
+      </c>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="28"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+    </row>
+    <row r="15" spans="12:32">
+      <c r="L15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L9" s="27"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="28"/>
-      <c r="Q9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="19" t="s">
+      <c r="N15" s="19">
+        <v>6</v>
+      </c>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="28"/>
+      <c r="T15" s="19">
+        <v>5</v>
+      </c>
+      <c r="U15" s="19"/>
+    </row>
+    <row r="16" spans="12:32">
+      <c r="L16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L10" s="27"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="28"/>
-      <c r="Q10" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L11" s="27"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="28"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="28">
-        <f>SUM(S4:S10)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L12" s="27"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="28"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="28"/>
-    </row>
-    <row r="13" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L13" s="27"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="28"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="28"/>
-    </row>
-    <row r="14" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L14" s="27"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="28"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L15" s="27"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="28"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="28"/>
-    </row>
-    <row r="16" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L16" s="27"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="28"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="28"/>
-    </row>
-    <row r="17" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L17" s="27"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="28"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="28"/>
-    </row>
-    <row r="18" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="N16" s="19">
+        <v>8</v>
+      </c>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="28"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="12:21">
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="28"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="18" spans="12:21">
       <c r="L18" s="27"/>
       <c r="M18" s="19"/>
       <c r="N18" s="28"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="28"/>
-    </row>
-    <row r="19" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P18" s="27"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="28"/>
+      <c r="T18" s="19">
+        <v>6</v>
+      </c>
+      <c r="U18" s="19"/>
+    </row>
+    <row r="19" spans="12:21">
       <c r="L19" s="27"/>
       <c r="M19" s="19"/>
       <c r="N19" s="28"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="28"/>
-    </row>
-    <row r="20" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P19" s="27"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="28"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+    </row>
+    <row r="20" spans="12:21">
       <c r="L20" s="27"/>
       <c r="M20" s="19"/>
       <c r="N20" s="28"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="28"/>
-    </row>
-    <row r="21" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P20" s="27"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="28"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" spans="12:21">
       <c r="L21" s="27"/>
       <c r="M21" s="19"/>
       <c r="N21" s="28"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="28"/>
-    </row>
-    <row r="22" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P21" s="27"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="28"/>
+      <c r="T21" s="19">
+        <v>7</v>
+      </c>
+      <c r="U21" s="19"/>
+    </row>
+    <row r="22" spans="12:21">
       <c r="L22" s="27"/>
       <c r="M22" s="19"/>
       <c r="N22" s="28"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="28"/>
-    </row>
-    <row r="23" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P22" s="27"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="28"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" spans="12:21">
       <c r="L23" s="27"/>
       <c r="M23" s="19"/>
       <c r="N23" s="28"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="28"/>
-    </row>
-    <row r="24" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="28"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="12:21">
       <c r="L24" s="27"/>
       <c r="M24" s="19"/>
       <c r="N24" s="28"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="28"/>
-    </row>
-    <row r="25" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P24" s="27"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="28"/>
+      <c r="T24" s="19">
+        <v>8</v>
+      </c>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="12:21">
       <c r="L25" s="27"/>
       <c r="M25" s="19"/>
       <c r="N25" s="28"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="28"/>
-    </row>
-    <row r="26" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="28"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="12:21">
       <c r="L26" s="27"/>
       <c r="M26" s="19"/>
       <c r="N26" s="28"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="28"/>
-    </row>
-    <row r="27" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P26" s="27"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="28"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="12:21">
       <c r="L27" s="27"/>
       <c r="M27" s="19"/>
       <c r="N27" s="28"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="28"/>
-    </row>
-    <row r="28" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="P27" s="27"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="28"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" spans="12:21">
       <c r="L28" s="27"/>
       <c r="M28" s="19"/>
       <c r="N28" s="28"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="28"/>
-    </row>
-    <row r="29" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P28" s="27"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="28"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="12:21" ht="15.75" thickBot="1">
       <c r="L29" s="29"/>
       <c r="M29" s="30"/>
       <c r="N29" s="31"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="31"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
     </row>
   </sheetData>
+  <autoFilter ref="L3:N16">
+    <sortState ref="L4:N16">
+      <sortCondition ref="N3:N16"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4796,16 +4888,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1BBF9A-F571-4CF8-B8D7-16A7133E7EF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="K2:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="11:22">
       <c r="K2" s="42" t="s">
         <v>10</v>
       </c>
@@ -4822,7 +4914,7 @@
       <c r="U2" s="42"/>
       <c r="V2" s="42"/>
     </row>
-    <row r="3" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="11:22">
       <c r="K3" s="40" t="s">
         <v>1</v>
       </c>
@@ -4851,7 +4943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="11:22">
       <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
@@ -4871,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="11:22">
       <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4891,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="11:22">
       <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4911,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="11:22">
       <c r="K7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4931,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="11:22">
       <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4951,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="11:22">
       <c r="K9" s="2" t="s">
         <v>13</v>
       </c>
@@ -4971,7 +5063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="11:22">
       <c r="K10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4991,7 +5083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="11:22">
       <c r="K11" s="2" t="s">
         <v>15</v>
       </c>
@@ -5008,7 +5100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="11:22">
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
@@ -5025,7 +5117,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="11:22">
       <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
@@ -5048,7 +5140,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="11:22">
       <c r="K14" s="2" t="s">
         <v>12</v>
       </c>
@@ -5071,7 +5163,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="11:22">
       <c r="K15" s="2" t="s">
         <v>14</v>
       </c>
@@ -5094,7 +5186,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="11:22">
       <c r="K16" s="2" t="s">
         <v>16</v>
       </c>
@@ -5117,7 +5209,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="11:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:22">
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -5129,7 +5221,7 @@
       <c r="V17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="O3:Q17" xr:uid="{1502B8AA-70D0-4861-B7F9-89833919B53B}">
+  <autoFilter ref="O3:Q17">
     <sortState ref="O4:Q17">
       <sortCondition ref="Q3:Q17"/>
     </sortState>
